--- a/test_files/outputs/test_te_output.xlsx
+++ b/test_files/outputs/test_te_output.xlsx
@@ -41192,10 +41192,10 @@
         <v>5003.8935</v>
       </c>
       <c r="E3">
-        <v>-2.842170943040401e-13</v>
+        <v>309257831.0497258</v>
       </c>
       <c r="F3">
-        <v>198.36</v>
+        <v>157.1</v>
       </c>
       <c r="G3">
         <v>31634.17</v>
@@ -41207,10 +41207,10 @@
         <v>790.8542500000001</v>
       </c>
       <c r="J3">
-        <v>-5.684341886080801e-14</v>
+        <v>11855673.43559944</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>178.43</v>
       </c>
       <c r="L3">
         <v>9983.700000000001</v>
@@ -41222,10 +41222,10 @@
         <v>249.5925</v>
       </c>
       <c r="O3">
-        <v>4.440892098500626e-15</v>
+        <v>972935.6631269233</v>
       </c>
       <c r="P3">
-        <v>7.2</v>
+        <v>3060.17</v>
       </c>
       <c r="Q3">
         <v>1361694.35</v>
@@ -41237,10 +41237,10 @@
         <v>34042.35875</v>
       </c>
       <c r="T3">
-        <v>-1.591615728102624e-12</v>
+        <v>14277533325.70174</v>
       </c>
       <c r="U3">
-        <v>1296.41</v>
+        <v>880.5649999999999</v>
       </c>
       <c r="V3">
         <v>13176346.53</v>
@@ -41252,10 +41252,10 @@
         <v>329408.6632500001</v>
       </c>
       <c r="Y3">
-        <v>9.00399754755199e-11</v>
+        <v>8667165667.540915</v>
       </c>
       <c r="Z3">
-        <v>277512.56</v>
+        <v>277116.72</v>
       </c>
       <c r="AA3">
         <v>1165122.856</v>
@@ -41267,10 +41267,10 @@
         <v>29128.07139999999</v>
       </c>
       <c r="AD3">
-        <v>-1.034550223266706e-11</v>
+        <v>13301377395.0357</v>
       </c>
       <c r="AE3">
-        <v>4.08</v>
+        <v>19.095</v>
       </c>
       <c r="AF3">
         <v>2198343.6277</v>
@@ -41282,10 +41282,10 @@
         <v>54958.59069249999</v>
       </c>
       <c r="AI3">
-        <v>-4.547473508864641e-12</v>
+        <v>50524161738.6889</v>
       </c>
       <c r="AJ3">
-        <v>0.0188</v>
+        <v>9.215</v>
       </c>
       <c r="AK3">
         <v>5396800.060000001</v>
@@ -41297,10 +41297,10 @@
         <v>134920.0015</v>
       </c>
       <c r="AN3">
-        <v>1.318767317570746e-11</v>
+        <v>290363794389.0626</v>
       </c>
       <c r="AO3">
-        <v>14.84</v>
+        <v>45.82</v>
       </c>
       <c r="AP3">
         <v>598497.1494999998</v>
@@ -41312,10 +41312,10 @@
         <v>14962.42873749999</v>
       </c>
       <c r="AS3">
-        <v>-8.071765478234738e-12</v>
+        <v>3336536212.824091</v>
       </c>
       <c r="AT3">
-        <v>0.0861</v>
+        <v>3.49</v>
       </c>
       <c r="AU3">
         <v>2088337.593</v>
@@ -41327,10 +41327,10 @@
         <v>52208.43982499999</v>
       </c>
       <c r="AX3">
-        <v>-6.139089236967266e-12</v>
+        <v>37441790512.37698</v>
       </c>
       <c r="AY3">
-        <v>1.697</v>
+        <v>18.885</v>
       </c>
       <c r="AZ3">
         <v>331269.66</v>
@@ -41342,10 +41342,10 @@
         <v>8281.7415</v>
       </c>
       <c r="BC3">
-        <v>1.989519660128281e-13</v>
+        <v>870656017.4068543</v>
       </c>
       <c r="BD3">
-        <v>3.56</v>
+        <v>10.025</v>
       </c>
       <c r="BE3">
         <v>69534.976</v>
@@ -41357,10 +41357,10 @@
         <v>1738.3744</v>
       </c>
       <c r="BH3">
-        <v>-1.70530256582424e-13</v>
+        <v>39843480.90279265</v>
       </c>
       <c r="BI3">
-        <v>0.781</v>
+        <v>2.681</v>
       </c>
       <c r="BJ3">
         <v>260998.4700000001</v>
@@ -41372,10 +41372,10 @@
         <v>6524.961750000002</v>
       </c>
       <c r="BM3">
-        <v>2.700062395888381e-12</v>
+        <v>543434109.1768098</v>
       </c>
       <c r="BN3">
-        <v>19.76</v>
+        <v>27.67</v>
       </c>
       <c r="BO3">
         <v>38222.63800000001</v>
@@ -41387,10 +41387,10 @@
         <v>955.5659500000002</v>
       </c>
       <c r="BR3">
-        <v>1.989519660128281e-13</v>
+        <v>11718177.48983133</v>
       </c>
       <c r="BS3">
-        <v>7.02</v>
+        <v>7.41</v>
       </c>
       <c r="BT3">
         <v>241926.6100000001</v>
@@ -41402,10 +41402,10 @@
         <v>6048.165250000003</v>
       </c>
       <c r="BW3">
-        <v>3.069544618483633e-12</v>
+        <v>465867039.6088975</v>
       </c>
       <c r="BX3">
-        <v>97.97</v>
+        <v>82.74000000000001</v>
       </c>
       <c r="BY3">
         <v>49559.05</v>
@@ -41417,10 +41417,10 @@
         <v>1238.97625</v>
       </c>
       <c r="CB3">
-        <v>-7.815970093361102e-14</v>
+        <v>19067653.69931635</v>
       </c>
       <c r="CC3">
-        <v>40.17</v>
+        <v>28.74</v>
       </c>
       <c r="CD3">
         <v>141862.04</v>
@@ -41432,10 +41432,10 @@
         <v>3546.551</v>
       </c>
       <c r="CG3">
-        <v>5.542233338928781e-13</v>
+        <v>151207788.3755323</v>
       </c>
       <c r="CH3">
-        <v>200.86</v>
+        <v>126.155</v>
       </c>
       <c r="CI3">
         <v>21379.76999999999</v>
@@ -41447,10 +41447,10 @@
         <v>534.4942499999999</v>
       </c>
       <c r="CL3">
-        <v>-1.740829702612245e-13</v>
+        <v>3367078.271717373</v>
       </c>
       <c r="CM3">
-        <v>44.49</v>
+        <v>25.75</v>
       </c>
       <c r="CN3">
         <v>152406.47</v>
@@ -41462,10 +41462,10 @@
         <v>3810.161749999999</v>
       </c>
       <c r="CQ3">
-        <v>-9.521272659185342e-13</v>
+        <v>170725014.6197225</v>
       </c>
       <c r="CR3">
-        <v>435.8</v>
+        <v>234.95</v>
       </c>
       <c r="CS3">
         <v>22695.41</v>
@@ -41477,10 +41477,10 @@
         <v>567.38525</v>
       </c>
       <c r="CV3">
-        <v>5.329070518200751e-14</v>
+        <v>3781092.267851218</v>
       </c>
       <c r="CW3">
-        <v>91.34999999999999</v>
+        <v>45.245</v>
       </c>
       <c r="CX3">
         <v>533961.8900000001</v>
@@ -41492,10 +41492,10 @@
         <v>13349.04725</v>
       </c>
       <c r="DA3">
-        <v>3.041122909053229e-12</v>
+        <v>28750027.68342044</v>
       </c>
       <c r="DB3">
-        <v>9433.870000000001</v>
+        <v>10873.42</v>
       </c>
       <c r="DC3">
         <v>78912.70299999998</v>
@@ -41507,10 +41507,10 @@
         <v>1972.817575</v>
       </c>
       <c r="DF3">
-        <v>-1.49213974509621e-13</v>
+        <v>56294681.84991027</v>
       </c>
       <c r="DG3">
-        <v>1.401</v>
+        <v>1.919</v>
       </c>
       <c r="DH3">
         <v>520279.8500000001</v>
@@ -41522,10 +41522,10 @@
         <v>13006.99625</v>
       </c>
       <c r="DK3">
-        <v>2.501110429875553e-12</v>
+        <v>3251144887.082973</v>
       </c>
       <c r="DL3">
-        <v>191.07</v>
+        <v>214.515</v>
       </c>
       <c r="DM3">
         <v>86810.00999999999</v>
@@ -41537,10 +41537,10 @@
         <v>2170.25025</v>
       </c>
       <c r="DP3">
-        <v>1.49213974509621e-13</v>
+        <v>68753258.68176663</v>
       </c>
       <c r="DQ3">
-        <v>525.36</v>
+        <v>257.72</v>
       </c>
     </row>
     <row r="4" spans="1:121">
@@ -41557,7 +41557,7 @@
         <v>403.2706666666667</v>
       </c>
       <c r="E4">
-        <v>4.263256414560601e-14</v>
+        <v>244314.1434209523</v>
       </c>
       <c r="F4">
         <v>1805.31</v>
@@ -41572,7 +41572,7 @@
         <v>825.26</v>
       </c>
       <c r="J4">
-        <v>7.105427357601002e-14</v>
+        <v>2923521.348714286</v>
       </c>
       <c r="K4">
         <v>5664.82</v>
@@ -41587,7 +41587,7 @@
         <v>47.864</v>
       </c>
       <c r="O4">
-        <v>8.215650382226158e-15</v>
+        <v>4261.568654285714</v>
       </c>
       <c r="P4">
         <v>16.94</v>
@@ -41602,7 +41602,7 @@
         <v>1174.460666666667</v>
       </c>
       <c r="T4">
-        <v>-3.552713678800501e-14</v>
+        <v>964554.5293638096</v>
       </c>
       <c r="U4">
         <v>1538.97</v>
@@ -41617,7 +41617,7 @@
         <v>272809.682</v>
       </c>
       <c r="Y4">
-        <v>-2.716404878810863e-11</v>
+        <v>308960.3915600001</v>
       </c>
       <c r="Z4">
         <v>273282.66</v>
@@ -41632,7 +41632,7 @@
         <v>21.0856</v>
       </c>
       <c r="AD4">
-        <v>-2.886579864025407e-15</v>
+        <v>1051.269445114286</v>
       </c>
       <c r="AE4">
         <v>28.6</v>
@@ -41647,7 +41647,7 @@
         <v>9.383799999999999</v>
       </c>
       <c r="AI4">
-        <v>-1.110223024625157e-15</v>
+        <v>284.1195411714286</v>
       </c>
       <c r="AJ4">
         <v>15.66</v>
@@ -41662,7 +41662,7 @@
         <v>47.564</v>
       </c>
       <c r="AN4">
-        <v>-1.77635683940025e-15</v>
+        <v>2100.139168571429</v>
       </c>
       <c r="AO4">
         <v>89.7</v>
@@ -41677,7 +41677,7 @@
         <v>4.228366666666667</v>
       </c>
       <c r="AS4">
-        <v>2.220446049250313e-16</v>
+        <v>33.91549965952381</v>
       </c>
       <c r="AT4">
         <v>6.37</v>
@@ -41692,7 +41692,7 @@
         <v>21.99086666666667</v>
       </c>
       <c r="AX4">
-        <v>-1.332267629550188e-15</v>
+        <v>674.162769552381</v>
       </c>
       <c r="AY4">
         <v>24.76</v>
@@ -41707,7 +41707,7 @@
         <v>11.03866666666666</v>
       </c>
       <c r="BC4">
-        <v>-2.220446049250313e-15</v>
+        <v>76.89205523809522</v>
       </c>
       <c r="BD4">
         <v>9.9</v>
@@ -41722,7 +41722,7 @@
         <v>1.976666666666667</v>
       </c>
       <c r="BH4">
-        <v>2.636779683484747e-16</v>
+        <v>3.782266095238095</v>
       </c>
       <c r="BI4">
         <v>2.008</v>
@@ -41737,7 +41737,7 @@
         <v>34.16466666666666</v>
       </c>
       <c r="BM4">
-        <v>-5.329070518200751e-15</v>
+        <v>647.8268409523808</v>
       </c>
       <c r="BN4">
         <v>29.05</v>
@@ -41752,7 +41752,7 @@
         <v>9.575733333333336</v>
       </c>
       <c r="BR4">
-        <v>2.775557561562891e-15</v>
+        <v>56.01126620952381</v>
       </c>
       <c r="BS4">
         <v>9.69</v>
@@ -41767,7 +41767,7 @@
         <v>111.4033333333333</v>
       </c>
       <c r="BW4">
-        <v>-4.440892098500626e-16</v>
+        <v>8250.05303809524</v>
       </c>
       <c r="BX4">
         <v>126.23</v>
@@ -41782,7 +41782,7 @@
         <v>39.28</v>
       </c>
       <c r="CB4">
-        <v>8.881784197001252e-16</v>
+        <v>1119.394171428572</v>
       </c>
       <c r="CC4">
         <v>48.88</v>
@@ -41797,7 +41797,7 @@
         <v>171.8713333333334</v>
       </c>
       <c r="CG4">
-        <v>2.042810365310288e-14</v>
+        <v>21226.76775523809</v>
       </c>
       <c r="CH4">
         <v>233.03</v>
@@ -41812,7 +41812,7 @@
         <v>34.32533333333333</v>
       </c>
       <c r="CL4">
-        <v>-2.220446049250313e-16</v>
+        <v>791.4376123809521</v>
       </c>
       <c r="CM4">
         <v>50.36</v>
@@ -41827,7 +41827,7 @@
         <v>305.6046666666667</v>
       </c>
       <c r="CQ4">
-        <v>-3.552713678800501e-15</v>
+        <v>58467.27738380955</v>
       </c>
       <c r="CR4">
         <v>477</v>
@@ -41842,7 +41842,7 @@
         <v>57.88400000000001</v>
       </c>
       <c r="CV4">
-        <v>6.883382752675971e-15</v>
+        <v>2004.59764</v>
       </c>
       <c r="CW4">
         <v>93.7</v>
@@ -41857,7 +41857,7 @@
         <v>10110.316</v>
       </c>
       <c r="DA4">
-        <v>-3.030464768016827e-12</v>
+        <v>2184549.842054287</v>
       </c>
       <c r="DB4">
         <v>10646.26</v>
@@ -41872,7 +41872,7 @@
         <v>1.9788</v>
       </c>
       <c r="DF4">
-        <v>8.326672684688674e-17</v>
+        <v>3.202465314285714</v>
       </c>
       <c r="DG4">
         <v>3.07</v>
@@ -41887,7 +41887,7 @@
         <v>166.248</v>
       </c>
       <c r="DK4">
-        <v>1.687538997430238e-14</v>
+        <v>12633.01163142857</v>
       </c>
       <c r="DL4">
         <v>292.48</v>
@@ -41902,7 +41902,7 @@
         <v>231.514</v>
       </c>
       <c r="DP4">
-        <v>-8.881784197001252e-15</v>
+        <v>26207.44214</v>
       </c>
       <c r="DQ4">
         <v>325.7</v>
